--- a/data/turning_counts/int102.xlsx
+++ b/data/turning_counts/int102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DED277-83E3-244B-B6DE-F09800F3CA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF77F8-6C6D-DC4C-8A8F-FCC68C7AC2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="500" windowWidth="32760" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18440" yWindow="500" windowWidth="32760" windowHeight="28300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -888,9 +888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AB23" sqref="AB23"/>
+      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="S9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="9">
         <v>7</v>
@@ -2006,7 +2006,7 @@
         <v>14</v>
       </c>
       <c r="S39" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="9">
         <v>3</v>
@@ -2543,7 +2543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I2" sqref="I2"/>
       <selection pane="bottomLeft" activeCell="Z28" sqref="Z28"/>

--- a/data/turning_counts/int102.xlsx
+++ b/data/turning_counts/int102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BF77F8-6C6D-DC4C-8A8F-FCC68C7AC2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFBD70-0E87-DB4C-929E-72990B1E38F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="500" windowWidth="32760" windowHeight="28300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18440" yWindow="500" windowWidth="32760" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8.25"/>
       <name val="Arial"/>
@@ -317,6 +317,19 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="8.25"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="8.25"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -345,7 +358,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -403,6 +416,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -888,9 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="S39" sqref="S39"/>
+      <selection pane="bottomLeft" activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1040,8 +1061,8 @@
       <c r="R2" s="9">
         <v>22</v>
       </c>
-      <c r="S2" s="9">
-        <v>0</v>
+      <c r="S2" s="16">
+        <v>1</v>
       </c>
       <c r="T2" s="9">
         <v>7</v>
@@ -1052,14 +1073,14 @@
       <c r="V2" s="9">
         <v>2</v>
       </c>
-      <c r="W2" s="9">
-        <v>0</v>
-      </c>
-      <c r="X2" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>0</v>
+      <c r="W2" s="16">
+        <v>1</v>
+      </c>
+      <c r="X2" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>1</v>
       </c>
       <c r="Z2" s="9">
         <v>2</v>
@@ -1123,8 +1144,8 @@
       <c r="R3" s="9">
         <v>33</v>
       </c>
-      <c r="S3" s="9">
-        <v>0</v>
+      <c r="S3" s="16">
+        <v>1</v>
       </c>
       <c r="T3" s="9">
         <v>4</v>
@@ -1135,20 +1156,20 @@
       <c r="V3" s="9">
         <v>3</v>
       </c>
-      <c r="W3" s="9">
-        <v>0</v>
-      </c>
-      <c r="X3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="9">
-        <v>0</v>
+      <c r="W3" s="16">
+        <v>1</v>
+      </c>
+      <c r="X3" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1206,8 +1227,8 @@
       <c r="R4" s="9">
         <v>28</v>
       </c>
-      <c r="S4" s="9">
-        <v>0</v>
+      <c r="S4" s="16">
+        <v>1</v>
       </c>
       <c r="T4" s="9">
         <v>3</v>
@@ -1221,17 +1242,17 @@
       <c r="W4" s="9">
         <v>1</v>
       </c>
-      <c r="X4" s="9">
-        <v>0</v>
+      <c r="X4" s="16">
+        <v>1</v>
       </c>
       <c r="Y4" s="9">
         <v>1</v>
       </c>
-      <c r="Z4" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>0</v>
+      <c r="Z4" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1289,8 +1310,8 @@
       <c r="R5" s="9">
         <v>24</v>
       </c>
-      <c r="S5" s="9">
-        <v>0</v>
+      <c r="S5" s="16">
+        <v>1</v>
       </c>
       <c r="T5" s="9">
         <v>6</v>
@@ -1301,20 +1322,20 @@
       <c r="V5" s="9">
         <v>3</v>
       </c>
-      <c r="W5" s="9">
-        <v>0</v>
-      </c>
-      <c r="X5" s="9">
-        <v>0</v>
+      <c r="W5" s="16">
+        <v>1</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1</v>
       </c>
       <c r="Y5" s="9">
         <v>1</v>
       </c>
-      <c r="Z5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>0</v>
+      <c r="Z5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1372,8 +1393,8 @@
       <c r="R6" s="9">
         <v>21</v>
       </c>
-      <c r="S6" s="9">
-        <v>0</v>
+      <c r="S6" s="16">
+        <v>1</v>
       </c>
       <c r="T6" s="9">
         <v>6</v>
@@ -1384,20 +1405,20 @@
       <c r="V6" s="9">
         <v>1</v>
       </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
+      <c r="W6" s="16">
+        <v>1</v>
+      </c>
+      <c r="X6" s="16">
+        <v>1</v>
       </c>
       <c r="Y6" s="9">
         <v>2</v>
       </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
+      <c r="Z6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1455,8 +1476,8 @@
       <c r="R7" s="9">
         <v>30</v>
       </c>
-      <c r="S7" s="9">
-        <v>0</v>
+      <c r="S7" s="16">
+        <v>1</v>
       </c>
       <c r="T7" s="9">
         <v>3</v>
@@ -1464,20 +1485,20 @@
       <c r="U7" s="9">
         <v>0</v>
       </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="9">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
+      <c r="V7" s="16">
+        <v>1</v>
+      </c>
+      <c r="W7" s="16">
+        <v>1</v>
+      </c>
+      <c r="X7" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>1</v>
       </c>
       <c r="AA7" s="9">
         <v>1</v>
@@ -1538,8 +1559,8 @@
       <c r="R8" s="9">
         <v>36</v>
       </c>
-      <c r="S8" s="9">
-        <v>0</v>
+      <c r="S8" s="16">
+        <v>1</v>
       </c>
       <c r="T8" s="9">
         <v>6</v>
@@ -1547,23 +1568,23 @@
       <c r="U8" s="9">
         <v>0</v>
       </c>
-      <c r="V8" s="9">
-        <v>0</v>
+      <c r="V8" s="16">
+        <v>1</v>
       </c>
       <c r="W8" s="9">
         <v>2</v>
       </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0</v>
+      <c r="X8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>1</v>
       </c>
       <c r="Z8" s="9">
         <v>1</v>
       </c>
-      <c r="AA8" s="9">
-        <v>0</v>
+      <c r="AA8" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1621,8 +1642,8 @@
       <c r="R9" s="9">
         <v>40</v>
       </c>
-      <c r="S9" s="9">
-        <v>0</v>
+      <c r="S9" s="16">
+        <v>1</v>
       </c>
       <c r="T9" s="9">
         <v>7</v>
@@ -1704,8 +1725,8 @@
       <c r="R10" s="9">
         <v>0</v>
       </c>
-      <c r="S10" s="9">
-        <v>0</v>
+      <c r="S10" s="16">
+        <v>1</v>
       </c>
       <c r="T10" s="9">
         <v>0</v>
@@ -1713,159 +1734,186 @@
       <c r="U10" s="9">
         <v>0</v>
       </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
-      <c r="W10" s="9">
-        <v>0</v>
-      </c>
-      <c r="X10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="9">
-        <v>0</v>
+      <c r="V10" s="16">
+        <v>1</v>
+      </c>
+      <c r="W10" s="16">
+        <v>1</v>
+      </c>
+      <c r="X10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
+      <c r="S11" s="15"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="S12" s="15"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="S13" s="15"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S20" s="15"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S21" s="15"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S22" s="15"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S23" s="15"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S24" s="15"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S25" s="15"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S26" s="15"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S27" s="15"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S28" s="15"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S29" s="15"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S30" s="15"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S31" s="15"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="S32" s="15"/>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="S33" s="15"/>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>65</v>
       </c>
+      <c r="S34" s="15"/>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="S35" s="15"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="S36" s="15"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="S37" s="15"/>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
@@ -1922,8 +1970,8 @@
       <c r="R38" s="9">
         <v>22</v>
       </c>
-      <c r="S38" s="9">
-        <v>0</v>
+      <c r="S38" s="16">
+        <v>1</v>
       </c>
       <c r="T38" s="9">
         <v>5</v>
@@ -1934,11 +1982,11 @@
       <c r="V38" s="9">
         <v>6</v>
       </c>
-      <c r="W38" s="9">
-        <v>0</v>
-      </c>
-      <c r="X38" s="9">
-        <v>0</v>
+      <c r="W38" s="16">
+        <v>1</v>
+      </c>
+      <c r="X38" s="16">
+        <v>1</v>
       </c>
       <c r="Y38" s="9">
         <v>5</v>
@@ -1946,8 +1994,8 @@
       <c r="Z38" s="9">
         <v>3</v>
       </c>
-      <c r="AA38" s="9">
-        <v>0</v>
+      <c r="AA38" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2005,8 +2053,8 @@
       <c r="R39" s="9">
         <v>14</v>
       </c>
-      <c r="S39" s="9">
-        <v>0</v>
+      <c r="S39" s="16">
+        <v>1</v>
       </c>
       <c r="T39" s="9">
         <v>3</v>
@@ -2026,11 +2074,11 @@
       <c r="Y39" s="9">
         <v>10</v>
       </c>
-      <c r="Z39" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="9">
-        <v>0</v>
+      <c r="Z39" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2088,8 +2136,8 @@
       <c r="R40" s="9">
         <v>23</v>
       </c>
-      <c r="S40" s="9">
-        <v>0</v>
+      <c r="S40" s="16">
+        <v>1</v>
       </c>
       <c r="T40" s="9">
         <v>4</v>
@@ -2103,8 +2151,8 @@
       <c r="W40" s="9">
         <v>3</v>
       </c>
-      <c r="X40" s="9">
-        <v>0</v>
+      <c r="X40" s="16">
+        <v>1</v>
       </c>
       <c r="Y40" s="9">
         <v>5</v>
@@ -2112,8 +2160,8 @@
       <c r="Z40" s="9">
         <v>2</v>
       </c>
-      <c r="AA40" s="9">
-        <v>0</v>
+      <c r="AA40" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2171,8 +2219,8 @@
       <c r="R41" s="9">
         <v>32</v>
       </c>
-      <c r="S41" s="9">
-        <v>0</v>
+      <c r="S41" s="16">
+        <v>1</v>
       </c>
       <c r="T41" s="9">
         <v>5</v>
@@ -2186,8 +2234,8 @@
       <c r="W41" s="9">
         <v>7</v>
       </c>
-      <c r="X41" s="9">
-        <v>0</v>
+      <c r="X41" s="16">
+        <v>1</v>
       </c>
       <c r="Y41" s="9">
         <v>1</v>
@@ -2254,8 +2302,8 @@
       <c r="R42" s="9">
         <v>22</v>
       </c>
-      <c r="S42" s="9">
-        <v>0</v>
+      <c r="S42" s="16">
+        <v>1</v>
       </c>
       <c r="T42" s="9">
         <v>6</v>
@@ -2275,11 +2323,11 @@
       <c r="Y42" s="9">
         <v>9</v>
       </c>
-      <c r="Z42" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="9">
-        <v>0</v>
+      <c r="Z42" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2337,8 +2385,8 @@
       <c r="R43" s="9">
         <v>29</v>
       </c>
-      <c r="S43" s="9">
-        <v>0</v>
+      <c r="S43" s="16">
+        <v>1</v>
       </c>
       <c r="T43" s="9">
         <v>5</v>
@@ -2352,17 +2400,17 @@
       <c r="W43" s="9">
         <v>1</v>
       </c>
-      <c r="X43" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="9">
-        <v>0</v>
+      <c r="X43" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="16">
+        <v>1</v>
       </c>
       <c r="Z43" s="9">
         <v>3</v>
       </c>
-      <c r="AA43" s="9">
-        <v>0</v>
+      <c r="AA43" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2420,8 +2468,8 @@
       <c r="R44" s="9">
         <v>28</v>
       </c>
-      <c r="S44" s="9">
-        <v>0</v>
+      <c r="S44" s="16">
+        <v>1</v>
       </c>
       <c r="T44" s="9">
         <v>6</v>
@@ -2429,23 +2477,23 @@
       <c r="U44" s="9">
         <v>0</v>
       </c>
-      <c r="V44" s="9">
-        <v>0</v>
+      <c r="V44" s="16">
+        <v>1</v>
       </c>
       <c r="W44" s="9">
         <v>1</v>
       </c>
-      <c r="X44" s="9">
-        <v>0</v>
+      <c r="X44" s="16">
+        <v>1</v>
       </c>
       <c r="Y44" s="9">
         <v>2</v>
       </c>
-      <c r="Z44" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>0</v>
+      <c r="Z44" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2503,8 +2551,8 @@
       <c r="R45" s="9">
         <v>33</v>
       </c>
-      <c r="S45" s="9">
-        <v>0</v>
+      <c r="S45" s="16">
+        <v>1</v>
       </c>
       <c r="T45" s="9">
         <v>7</v>
@@ -2518,17 +2566,17 @@
       <c r="W45" s="9">
         <v>1</v>
       </c>
-      <c r="X45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="9">
-        <v>0</v>
+      <c r="X45" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="16">
+        <v>1</v>
       </c>
       <c r="Z45" s="9">
         <v>1</v>
       </c>
-      <c r="AA45" s="9">
-        <v>0</v>
+      <c r="AA45" s="16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2543,10 +2591,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="Z28" sqref="Z28"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/turning_counts/int102.xlsx
+++ b/data/turning_counts/int102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Hill\Documents\GitHub\662_dogbones_2023\data\turning_counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFFBD70-0E87-DB4C-929E-72990B1E38F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0637B650-DD37-49C7-9C6D-150F1F09F878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="500" windowWidth="32760" windowHeight="28300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-4350" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,20 @@
     <sheet name="Bank3" sheetId="4" r:id="rId4"/>
     <sheet name="Bank4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -813,13 +826,13 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -827,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -835,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -843,7 +856,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -851,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -859,12 +872,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -872,7 +885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -880,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -888,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -911,10 +924,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AG21" sqref="AG21"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" customWidth="1"/>
@@ -923,7 +936,7 @@
     <col min="5" max="21" width="6.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -1255,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -1338,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -1421,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1504,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
@@ -1587,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
@@ -1670,7 +1683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
@@ -1753,169 +1766,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>56</v>
       </c>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>60</v>
       </c>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>62</v>
       </c>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>63</v>
       </c>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>64</v>
       </c>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>65</v>
       </c>
       <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>66</v>
       </c>
       <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>67</v>
       </c>
       <c r="S36" s="15"/>
     </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>68</v>
       </c>
       <c r="S37" s="15"/>
     </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>69</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>70</v>
       </c>
@@ -2081,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>71</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>72</v>
       </c>
@@ -2247,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>73</v>
       </c>
@@ -2330,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>74</v>
       </c>
@@ -2413,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>75</v>
       </c>
@@ -2496,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>76</v>
       </c>
@@ -2597,13 +2610,13 @@
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="21" width="6.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -2686,7 +2699,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -2769,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -2852,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
@@ -2935,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
@@ -3101,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>38</v>
       </c>
@@ -3184,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
@@ -3267,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
@@ -3350,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
@@ -3433,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
@@ -3444,7 +3457,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
@@ -3455,7 +3468,7 @@
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
@@ -3466,7 +3479,7 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -3477,7 +3490,7 @@
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
@@ -3488,7 +3501,7 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
@@ -3499,7 +3512,7 @@
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
@@ -3510,7 +3523,7 @@
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
     </row>
-    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -3521,7 +3534,7 @@
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
     </row>
-    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -3532,7 +3545,7 @@
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
     </row>
-    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>51</v>
       </c>
@@ -3543,7 +3556,7 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
@@ -3554,7 +3567,7 @@
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
     </row>
-    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -3565,7 +3578,7 @@
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
     </row>
-    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
@@ -3576,7 +3589,7 @@
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
     </row>
-    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>55</v>
       </c>
@@ -3587,7 +3600,7 @@
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>56</v>
       </c>
@@ -3598,7 +3611,7 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>57</v>
       </c>
@@ -3609,7 +3622,7 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
@@ -3620,7 +3633,7 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -3631,7 +3644,7 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>60</v>
       </c>
@@ -3642,7 +3655,7 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
@@ -3653,7 +3666,7 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>62</v>
       </c>
@@ -3664,7 +3677,7 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>63</v>
       </c>
@@ -3675,7 +3688,7 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>64</v>
       </c>
@@ -3686,7 +3699,7 @@
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
     </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>65</v>
       </c>
@@ -3697,7 +3710,7 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
     </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>66</v>
       </c>
@@ -3708,7 +3721,7 @@
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
     </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>67</v>
       </c>
@@ -3719,7 +3732,7 @@
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>68</v>
       </c>
@@ -3730,7 +3743,7 @@
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
     </row>
-    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>69</v>
       </c>
@@ -3813,7 +3826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>70</v>
       </c>
@@ -3896,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>71</v>
       </c>
@@ -3979,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>72</v>
       </c>
@@ -4062,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>73</v>
       </c>
@@ -4145,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>74</v>
       </c>
@@ -4228,7 +4241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>75</v>
       </c>
@@ -4311,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>76</v>
       </c>
@@ -4409,16 +4422,16 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38:U45"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
     <col min="2" max="21" width="6.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -4475,7 +4488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>45201.291666666664</v>
       </c>
@@ -4540,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>45201.302083333336</v>
       </c>
@@ -4605,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>45201.3125</v>
       </c>
@@ -4670,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>45201.322916666664</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>45201.333333333336</v>
       </c>
@@ -4800,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>45201.34375</v>
       </c>
@@ -4865,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>45201.354166666664</v>
       </c>
@@ -4930,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>45201.364583333336</v>
       </c>
@@ -4995,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>45201.375</v>
       </c>
@@ -5060,142 +5073,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>45201.385416666664</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>45201.395833333336</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>45201.40625</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>45201.416666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>45201.427083333336</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>45201.4375</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>45201.447916666664</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>45201.458333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>45201.46875</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>45201.479166666664</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>45201.489583333336</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>45201.5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>45201.510416666664</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>45201.520833333336</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>45201.53125</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>45201.541666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>45201.552083333336</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>45201.5625</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>45201.572916666664</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>45201.583333333336</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>45201.59375</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>45201.604166666664</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>45201.614583333336</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>45201.625</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>45201.635416666664</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>45201.645833333336</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>45201.65625</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>45201.666666666664</v>
       </c>
@@ -5260,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>45201.677083333336</v>
       </c>
@@ -5325,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45201.6875</v>
       </c>
@@ -5390,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>45201.697916666664</v>
       </c>
@@ -5455,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>45201.708333333336</v>
       </c>
@@ -5520,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>45201.71875</v>
       </c>
@@ -5585,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>45201.729166666664</v>
       </c>
@@ -5650,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>45201.739583333336</v>
       </c>
@@ -5733,13 +5746,13 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:U45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
     <col min="2" max="21" width="6.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
@@ -5796,7 +5809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>45201.291666666664</v>
       </c>
@@ -5861,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>45201.302083333336</v>
       </c>
@@ -5926,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>45201.3125</v>
       </c>
@@ -5991,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>45201.322916666664</v>
       </c>
@@ -6056,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>45201.333333333336</v>
       </c>
@@ -6121,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>45201.34375</v>
       </c>
@@ -6186,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>45201.354166666664</v>
       </c>
@@ -6251,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>45201.364583333336</v>
       </c>
@@ -6316,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>45201.375</v>
       </c>
@@ -6381,142 +6394,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>45201.385416666664</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>45201.395833333336</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>45201.40625</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>45201.416666666664</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>45201.427083333336</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>45201.4375</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>45201.447916666664</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>45201.458333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>45201.46875</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>45201.479166666664</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>45201.489583333336</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>45201.5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>45201.510416666664</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>45201.520833333336</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>45201.53125</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>45201.541666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>45201.552083333336</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>45201.5625</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>45201.572916666664</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>45201.583333333336</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>45201.59375</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>45201.604166666664</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>45201.614583333336</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>45201.625</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>45201.635416666664</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>45201.645833333336</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>45201.65625</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>45201.666666666664</v>
       </c>
@@ -6581,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>45201.677083333336</v>
       </c>
@@ -6646,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>45201.6875</v>
       </c>
@@ -6711,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>45201.697916666664</v>
       </c>
@@ -6776,7 +6789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>45201.708333333336</v>
       </c>
@@ -6841,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>45201.71875</v>
       </c>
@@ -6906,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>45201.729166666664</v>
       </c>
@@ -6971,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>45201.739583333336</v>
       </c>

--- a/data/turning_counts/int102.xlsx
+++ b/data/turning_counts/int102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Hill\Documents\GitHub\662_dogbones_2023\data\turning_counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0637B650-DD37-49C7-9C6D-150F1F09F878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF515567-ABAC-4C21-9826-EF13D405C16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-4350" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="732" yWindow="828" windowWidth="23004" windowHeight="12204" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -920,11 +920,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47:T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1782,7 +1782,110 @@
       <c r="A13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="S13" s="15"/>
+      <c r="B13" s="9">
+        <f>SUM(B7:B10)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13:AA13" si="0">SUM(C7:C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <f>SUM(D4:D7)</f>
+        <v>432</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" ref="E13:AA13" si="1">SUM(E4:E7)</f>
+        <v>127</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="1"/>
+        <v>714</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
@@ -2590,6 +2693,76 @@
       </c>
       <c r="AA45" s="16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="9">
+        <f>SUM(D40:D43)</f>
+        <v>964</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" ref="E47:T47" si="2">SUM(E40:E43)</f>
+        <v>148</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="O47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R47" s="9">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="S47" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T47" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
